--- a/Tugas Praktikum/POS/public/template_user.xlsx
+++ b/Tugas Praktikum/POS/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C550CAF4-3BBD-4E5D-A640-188485A16970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{174E8D5F-A2B6-4324-8F56-E11E10BAD77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{4BB70EC6-FD91-4401-B986-7A20468F793B}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{4BB70EC6-FD91-4401-B986-7A20468F793B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="5">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="8">
   <si>
     <t>user_id</t>
   </si>
@@ -48,10 +48,19 @@
     <t>nama</t>
   </si>
   <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>pelanggan</t>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>Supplier1</t>
+  </si>
+  <si>
+    <t>Pelanggan1</t>
+  </si>
+  <si>
+    <t>supplier1</t>
+  </si>
+  <si>
+    <t>pelanggan1</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +446,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -445,10 +456,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -456,10 +470,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
